--- a/InputData/bldgs/SoDSCbRIC/Shr of Dist Solar Costs by Rcpnt ISIC Code.xlsx
+++ b/InputData/bldgs/SoDSCbRIC/Shr of Dist Solar Costs by Rcpnt ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\bldgs\SoDSCbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F5869C-C15E-49B8-B1D2-5D8356919E5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26EE6B0-3E57-4B02-B0C1-C4B8962AB1B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="480" windowWidth="21615" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="585" windowWidth="24090" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="114">
   <si>
     <t>https://www.nrel.gov/docs/fy19osti/72399.pdf</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Coke and refined petroleum products</t>
   </si>
   <si>
-    <t>Chemicals and pharmaceutical products</t>
-  </si>
-  <si>
     <t>Rubber and plastics products</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
     <t>ISIC 19</t>
   </si>
   <si>
-    <t>ISIC 20T21</t>
-  </si>
-  <si>
     <t>ISIC 22</t>
   </si>
   <si>
@@ -371,6 +365,18 @@
   </si>
   <si>
     <t>SoDSCbRIC Share of Distriuted Solar Costs by Recipient ISIC Code</t>
+  </si>
+  <si>
+    <t>ISIC 20</t>
+  </si>
+  <si>
+    <t>ISIC 21</t>
+  </si>
+  <si>
+    <t>Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
   </si>
 </sst>
 </file>
@@ -760,15 +766,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -778,7 +784,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -788,27 +794,27 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +828,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -848,7 +854,7 @@
         <v>24</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -856,19 +862,19 @@
         <v>23</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -890,10 +896,10 @@
         <v>0.11115462948456839</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -915,10 +921,10 @@
         <v>0.10778630737897542</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -940,10 +946,10 @@
         <v>0.11789127369575435</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
@@ -965,10 +971,10 @@
         <v>2.020993263355789E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
@@ -990,10 +996,10 @@
         <v>9.0944696851010504E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
         <v>30</v>
@@ -1014,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
         <v>31</v>
@@ -1036,10 +1042,10 @@
         <v>0.12454958483471723</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
@@ -1061,10 +1067,10 @@
         <v>9.4234685884380387E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
         <v>33</v>
@@ -1086,13 +1092,13 @@
         <v>5.7183142722857593E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1111,13 +1117,13 @@
         <v>9.4234685884380387E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1136,21 +1142,21 @@
         <v>0.1818110606297979</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1162,10 +1168,10 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1173,22 +1179,22 @@
         <v>22</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1207,13 +1213,13 @@
         <v>5.9203313436472164E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1232,13 +1238,13 @@
         <v>2.4668047265196738E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1257,13 +1263,13 @@
         <v>0.17760994030941649</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1281,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1303,13 +1309,13 @@
         <v>4.9336094530393476E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1328,13 +1334,13 @@
         <v>8.8804970154708243E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1353,13 +1359,13 @@
         <v>7.8937751248629548E-2</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1378,13 +1384,13 @@
         <v>9.9524911682299919E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1403,13 +1409,13 @@
         <v>8.9657692776221209E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1428,13 +1434,13 @@
         <v>6.9923254964063833E-2</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1453,93 +1459,101 @@
         <v>0.26233402363259839</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" t="s">
         <v>60</v>
-      </c>
-      <c r="H37" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1566,7 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1561,119 +1575,122 @@
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>95</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>97</v>
       </c>
       <c r="B2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!B1,Data!$D$3:$D$13)</f>
@@ -1729,19 +1746,19 @@
       </c>
       <c r="O2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!O1,Data!$D$3:$D$13)</f>
-        <v>5.7183142722857593E-2</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!P1,Data!$D$3:$D$13)</f>
-        <v>0.1818110606297979</v>
+        <v>5.7183142722857593E-2</v>
       </c>
       <c r="Q2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!Q1,Data!$D$3:$D$13)</f>
-        <v>0.18846937176876077</v>
+        <v>0.1818110606297979</v>
       </c>
       <c r="R2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!R1,Data!$D$3:$D$13)</f>
-        <v>0</v>
+        <v>0.18846937176876077</v>
       </c>
       <c r="S2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!S1,Data!$D$3:$D$13)</f>
@@ -1761,19 +1778,19 @@
       </c>
       <c r="W2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!W1,Data!$D$3:$D$13)</f>
-        <v>0.30988563371455435</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!X1,Data!$D$3:$D$13)</f>
-        <v>0</v>
+        <v>0.30988563371455435</v>
       </c>
       <c r="Y2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!Y1,Data!$D$3:$D$13)</f>
-        <v>0.12454958483471723</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!Z1,Data!$D$3:$D$13)</f>
-        <v>0</v>
+        <v>0.12454958483471723</v>
       </c>
       <c r="AA2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AA1,Data!$D$3:$D$13)</f>
@@ -1797,11 +1814,11 @@
       </c>
       <c r="AF2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AF1,Data!$D$3:$D$13)</f>
-        <v>0.13810120632931225</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AG1,Data!$D$3:$D$13)</f>
-        <v>0</v>
+        <v>0.13810120632931225</v>
       </c>
       <c r="AH2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AH1,Data!$D$3:$D$13)</f>
@@ -1819,17 +1836,21 @@
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AK1,Data!$D$3:$D$13)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL2">
+        <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AL1,Data!$D$3:$D$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <f>B2</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:AK3" si="0">C2</f>
+        <f t="shared" ref="C3:AL3" si="0">C2</f>
         <v>0</v>
       </c>
       <c r="D3">
@@ -1865,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L3" si="1">L2</f>
         <v>0</v>
       </c>
       <c r="M3">
@@ -1878,20 +1899,20 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
         <v>5.7183142722857593E-2</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <f t="shared" si="0"/>
         <v>0.1818110606297979</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <f t="shared" si="0"/>
         <v>0.18846937176876077</v>
       </c>
-      <c r="R3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="S3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1910,20 +1931,20 @@
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
         <v>0.30988563371455435</v>
       </c>
-      <c r="X3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Y3">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
         <v>0.12454958483471723</v>
       </c>
-      <c r="Z3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="AA3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1946,12 +1967,12 @@
       </c>
       <c r="AF3">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
         <v>0.13810120632931225</v>
       </c>
-      <c r="AG3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="AH3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1968,10 +1989,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!B1,Data!$D$17:$D$27)</f>
@@ -2027,19 +2052,19 @@
       </c>
       <c r="O4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!O1,Data!$D$17:$D$27)</f>
-        <v>8.9657692776221209E-2</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!P1,Data!$D$17:$D$27)</f>
-        <v>0.26233402363259839</v>
+        <v>8.9657692776221209E-2</v>
       </c>
       <c r="Q4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!Q1,Data!$D$17:$D$27)</f>
-        <v>0.16944816664636375</v>
+        <v>0.26233402363259839</v>
       </c>
       <c r="R4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!R1,Data!$D$17:$D$27)</f>
-        <v>0</v>
+        <v>0.16944816664636375</v>
       </c>
       <c r="S4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!S1,Data!$D$17:$D$27)</f>
@@ -2059,11 +2084,11 @@
       </c>
       <c r="W4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!W1,Data!$D$17:$D$27)</f>
-        <v>0.42922402241442315</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!X1,Data!$D$17:$D$27)</f>
-        <v>0</v>
+        <v>0.42922402241442315</v>
       </c>
       <c r="Y4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!Y1,Data!$D$17:$D$27)</f>
@@ -2095,11 +2120,11 @@
       </c>
       <c r="AF4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!AF1,Data!$D$17:$D$27)</f>
-        <v>4.9336094530393476E-2</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!AG1,Data!$D$17:$D$27)</f>
-        <v>0</v>
+        <v>4.9336094530393476E-2</v>
       </c>
       <c r="AH4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!AH1,Data!$D$17:$D$27)</f>
@@ -2115,6 +2140,10 @@
       </c>
       <c r="AK4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!AK1,Data!$D$17:$D$27)</f>
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!AL1,Data!$D$17:$D$27)</f>
         <v>0</v>
       </c>
     </row>
